--- a/xlsx/法拉利LaFerrari_intext.xlsx
+++ b/xlsx/法拉利LaFerrari_intext.xlsx
@@ -26,16 +26,16 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E6%8B%89%E5%88%A9%E6%B1%BD%E8%BB%8A</t>
   </si>
   <si>
-    <t>法拉利汽車</t>
-  </si>
-  <si>
-    <t>政策_政策_混合動力車輛_法拉利LaFerrari</t>
+    <t>法拉利汽车</t>
+  </si>
+  <si>
+    <t>政策_政策_混合动力车辆_法拉利LaFerrari</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B1%BD%E8%BB%8A%E8%A8%AD%E8%A8%88</t>
   </si>
   <si>
-    <t>汽車設計</t>
+    <t>汽车设计</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BC%97%E6%8B%89%E7%BB%B4%E5%A5%A5%C2%B7%E6%9B%BC%E4%BD%90%E5%B0%BC</t>
@@ -47,19 +47,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B1%BD%E8%BB%8A%E7%A8%AE%E9%A1%9E</t>
   </si>
   <si>
-    <t>汽車種類</t>
+    <t>汽车种类</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B6%85%E7%B4%9A%E8%B7%91%E8%BB%8A</t>
   </si>
   <si>
-    <t>超級跑車</t>
+    <t>超级跑车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E7%BD%AE%E5%BE%8C%E9%A9%85</t>
   </si>
   <si>
-    <t>中置後驅</t>
+    <t>中置后驱</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%8E%E8%BD%AE%E9%A9%B1%E5%8A%A8</t>
@@ -83,7 +83,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%84%B6%E9%80%B2%E6%B0%A3%E5%BC%95%E6%93%8E</t>
   </si>
   <si>
-    <t>自然進氣引擎</t>
+    <t>自然进气引擎</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A8%E8%83%BD%E5%9B%9E%E6%94%B6%E7%B3%BB%E7%BB%9F</t>
@@ -113,19 +113,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B7%B7%E5%90%88%E5%8B%95%E5%8A%9B%E8%BB%8A%E8%BC%9B</t>
   </si>
   <si>
-    <t>混合動力車輛</t>
+    <t>混合动力车辆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%9A%E5%86%A0%E8%A9%9E</t>
   </si>
   <si>
-    <t>定冠詞</t>
+    <t>定冠词</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E5%85%A7%E7%93%A6%E8%BB%8A%E5%B1%95</t>
   </si>
   <si>
-    <t>日內瓦車展</t>
+    <t>日内瓦车展</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/2016%E5%B9%B4%E6%84%8F%E5%A4%A7%E5%88%A9%E4%B8%AD%E9%83%A8%E5%9C%B0%E9%9C%87</t>
